--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.597868017127299</v>
+        <v>1.5978680171273</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>7.75962690137706</v>
+        <v>7.48855540551831</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.059715398362551</v>
+        <v>2.05971539836255</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3748364649494791</v>
+        <v>0.374836464949479</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>7.48855540551831</v>
+        <v>8.07403682966576</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>8.07403682966576</v>
+        <v>7.46695838365601</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.5978680171273</v>
+        <v>1.60547621596509</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>7.46695838365601</v>
+        <v>8.77829241163353</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.60547621596509</v>
+        <v>1.605476215965086</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>8.77829241163353</v>
+        <v>7.624533971256527</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.05971539836255</v>
+        <v>2.067723911384556</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.374836464949479</v>
+        <v>0.3828449779714835</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.605476215965086</v>
+        <v>1.60547621596509</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>7.624533971256527</v>
+        <v>3.66218974753468</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.067723911384556</v>
+        <v>2.06772391138456</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3828449779714835</v>
+        <v>0.382844977971483</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/protists/protists_biomass_estimate.xlsx
+++ b/protists/protists_biomass_estimate.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.60547621596509</v>
+        <v>1.605476215965086</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>3.66218974753468</v>
+        <v>3.730472804076574</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.06772391138456</v>
+        <v>2.067723911384556</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.382844977971483</v>
+        <v>0.3828449779714835</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
